--- a/Car_Usage_Cost_Analysis/Car_Usage_Cost_Analysis.xlsx
+++ b/Car_Usage_Cost_Analysis/Car_Usage_Cost_Analysis.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Excel jobs\Car_Usage_Cost_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Excel_Analytic_Projects\Car_Usage_Cost_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{029FE1A0-7D5E-476F-8DCB-AB1259934BC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD04D4-D421-4D2B-9829-5A58FD9B44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{673B1A09-519B-435A-B67C-0226E5B85163}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{673B1A09-519B-435A-B67C-0226E5B85163}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Purchase Price</t>
   </si>
@@ -69,23 +78,48 @@
     <t>Gas Price_Per_Gallon</t>
   </si>
   <si>
-    <t>Total Gas Cost</t>
-  </si>
-  <si>
     <t>Expected Annual Gas Use (Gallon)</t>
   </si>
   <si>
     <t>Car Usage Cost Analysis</t>
+  </si>
+  <si>
+    <t>Car Life Span</t>
+  </si>
+  <si>
+    <t>User Maximum Drive Goal (Miles)</t>
+  </si>
+  <si>
+    <t>Car Life Span (Years)</t>
+  </si>
+  <si>
+    <t>Gas Cost</t>
+  </si>
+  <si>
+    <t>Annual Cost (Ins. + Lic. + Gas)</t>
+  </si>
+  <si>
+    <t>Total Cost of Use Over lifespan</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Average Cost/per Year</t>
+  </si>
+  <si>
+    <t>By - Chris Nzoka-okoye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +136,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="doubleAccounting"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,12 +180,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -152,6 +206,858 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Cost/per Year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7307.1428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13625.263157894737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20131.176470588231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA3E-4350-B33E-668E6D7D8FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1329199023"/>
+        <c:axId val="1329199439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1329199023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1329199439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1329199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1329199023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{ED535DAD-AE4C-439F-A921-E6B887443AE6}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8651875" cy="6283854"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D74CD5-B2B4-543D-EDFF-D856EE26C19C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,9 +1357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E500D-B2EA-40B0-A1A8-A3508E245E69}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -464,8 +1372,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,9 +1469,18 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3">
+        <f>B18</f>
+        <v>3857.1428571428569</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:D10" si="0">C18</f>
+        <v>7105.2631578947376</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>7941.1764705882351</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -597,18 +1517,18 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
         <f>B13/B14</f>
         <v>857.14285714285711</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ref="C15:D15" si="0">C13/C14</f>
+        <f t="shared" ref="C15:D15" si="1">C13/C14</f>
         <v>1578.9473684210527</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1764.7058823529412</v>
       </c>
     </row>
@@ -622,30 +1542,165 @@
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
         <f>B17*B15</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18:D18" si="1">C17*C15</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3857.1428571428569</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:D18" si="2">C17*C15</f>
+        <v>7105.2631578947376</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>7941.1764705882351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <f>SUM(B8:B10)</f>
+        <v>5567.1428571428569</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" ref="C20:D20" si="3">SUM(C8:C10)</f>
+        <v>9905.2631578947367</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="3"/>
+        <v>11491.176470588234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>250000</v>
+      </c>
+      <c r="C24">
+        <v>250000</v>
+      </c>
+      <c r="D24">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7">
+        <f>B24/B23</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" ref="C25:D25" si="4">C24/C23</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5">
+        <f>B25*B20</f>
+        <v>46392.857142857145</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:D27" si="5">C25*C20</f>
+        <v>82543.859649122809</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="5"/>
+        <v>95759.803921568629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <f>B27+B4</f>
+        <v>60892.857142857145</v>
+      </c>
+      <c r="C28" s="6">
+        <f>C27+C4</f>
+        <v>113543.85964912281</v>
+      </c>
+      <c r="D28" s="6">
+        <f>D27+D4</f>
+        <v>167759.80392156861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="8">
+        <f>B28/B25</f>
+        <v>7307.1428571428569</v>
+      </c>
+      <c r="C31" s="8">
+        <f>C28/C25</f>
+        <v>13625.263157894737</v>
+      </c>
+      <c r="D31" s="8">
+        <f>D28/D25</f>
+        <v>20131.176470588231</v>
       </c>
     </row>
   </sheetData>
